--- a/analyze/outputAll1.xlsx
+++ b/analyze/outputAll1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>в том числе:</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr"/>
@@ -444,87 +444,67 @@
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr"/>
       <c r="F1" s="1" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Численность рабочей силы – всего</t>
+          <t>самостоятельные дошкольные образовательные</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1153,3 1180,4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1159,2</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1131,3 1154,8</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>мужчины</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>организации</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>598,3 615,3</t>
+          <t>817</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>609,2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>593,2 600,8</t>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>366</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>женщины</t>
+          <t>организации общего образования, дополнитель-</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>555,0 565,1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>550,0</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>538,1 554,0</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>в том числе:</t>
+          <t>ного образования детей и иных организаций,</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -532,162 +512,123 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>занятые – всего</t>
+          <t>имеющих подразделения (группы), осуществ-</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1069,9 1085,6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1059,6</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1053,1 1084,5</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>мужчины</t>
+          <t>ляющие образовательную деятельность по обра-</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>552,8 561,0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>558,4</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>552,3 564,8</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>женщины</t>
+          <t>зовательным программам дошкольного образо-</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>517,1 524,6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>501,2</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>500,8 519,7</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>безработные – всего</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>вания, присмотр и уход за детьми</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>83,4 94,8</t>
+          <t>526</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99,6</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>78,2 70,3</t>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>295</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>мужчины</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>45,5 54,3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>50,8</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>41,0 36,0</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>женщины</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>Численность воспитанников</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>– всего, человек 106252</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>37,9 40,5</t>
+          <t>109701</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48,8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>37,2 34,3</t>
+          <t>112505</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>112685</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>110220</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Численность безработных, зарегистрирован-</t>
+          <t>в том числе:</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -695,12 +636,11 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ных в государственных учреждениях службы</t>
+          <t>в самостоятельных дошкольных образователь-</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -708,100 +648,79 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>ных организациях</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>98219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>101412</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>103273</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96457</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>93574</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>занятости (на конец года) – всего</t>
+          <t>в подразделениях (группах), осуществляющих</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20,7 22,2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>18,7 17,4</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>мужчины</t>
+          <t>образовательную деятельность по программам</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>11,6 12,4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10,9 10,2</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>женщины</t>
+          <t>дошкольного образования, присмотр и уход за</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9,1 9,8</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>7,8 7,2</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Из них безработные, которым назначено посо-</t>
+          <t>детьми, организованных при общеобразователь-</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -809,87 +728,67 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>бие по безработице – всего</t>
+          <t>ных организациях и организациях дополнитель-</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19,2 20,6</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>17,3 15,7</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>мужчины</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>ного образования детей</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8033</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>... ...</t>
+          <t>8289</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>... ...</t>
+          <t>9232</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16228</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>16646</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>женщины</t>
+          <t>Численность воспитанников, приходящихся на</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>... ...</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>... ...</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1) По данным выборочных обследований рабочей силы.</t>
+          <t>100 мест в дошкольных образовательных орга-</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -897,25 +796,43 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2) По данным Управления Алтайского края по труду и занятости населения.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>низациях, человек</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5.2. УРОВЕНЬ УЧАСТИЯ В РАБОЧЕЙ СИЛЕ,</t>
+          <t>Число государственных и муниципальных обще-</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -923,25 +840,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>УРОВЕНЬ ЗАНЯТОСТИ И УРОВЕНЬ БЕЗРАБОТИЦЫ</t>
+          <t>образовательных организаций (включая вечерние</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -949,7 +860,6 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -958,221 +868,251 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>организации)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1086/92</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>(в процентах)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>1038/105</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>991/134</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>824/284</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>689/403</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Уровень участия</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>В них обучающихся, человек</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>245057</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Уровень</t>
+          <t>251348</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Уровень</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Уровень</t>
+          <t>259214</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>265580</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>269885</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>в рабочей силе</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>занятости</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>безработицы</t>
-        </is>
-      </c>
+          <t>Число негосударственных общеобразовательных</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>зарегистрированной</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(численность населения,</t>
+          <t>организаций</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>(занятое население</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(безработные</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>безработицы</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>входящая в состав рабочей</t>
+          <t>В них обучающихся, человек</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>к численности</t>
+          <t>540</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>к численности</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>(зарегистрированные</t>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>561</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>силы,  к численности</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>населения</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>рабочей силы</t>
-        </is>
-      </c>
+          <t>Число учреждений начального профессиональ-</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>безработные</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>населения соответствую-</t>
+          <t>4)ного образования</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>соответствующей</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>соответствующей</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>к численности</t>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4) ...</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4) ...</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>щей возрастной группы)</t>
+          <t>В них учащихся, тыс. человек</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>возрастной группы)</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>возрастной группы)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>рабочей силы)</t>
+          <t>15,9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>...</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Всего</t>
+          <t>Число организаций среднего профессионального</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1180,268 +1120,124 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2014 63,6</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>59,0</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2015 65,8</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>образования</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>38/2</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>60,5</t>
+          <t>42/3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8,0</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1,9</t>
+          <t>58/17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58/17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>54/17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2016 65,1</t>
+          <t>в том числе:</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>59,5</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2017 63,8</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>государственных и муниципальных</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>35/2</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>59,4</t>
+          <t>39/3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1,7</t>
+          <t>55/16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>54/16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>50/16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2018 65,3</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>негосударственных</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>61,4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6,1</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Мужчины</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2014 70,3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>65,0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2015 73,1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>66,6</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2016 72,9</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>66,9</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>8,3</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2017 71,4</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>66,4</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2018 72,6</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>68,3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1,7</t>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4/1</t>
         </is>
       </c>
     </row>
